--- a/docs/Members.xlsx
+++ b/docs/Members.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnsil\Documents\GFC\cursor files\GFC-System\GFC-Studio V2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E9015E-347D-49D7-983A-F53E9021118E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA35CB-4446-4939-85D4-4C767EFBB5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F186F330-01AE-4AE8-BCC6-D9E3A3A42AC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F186F330-01AE-4AE8-BCC6-D9E3A3A42AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="236">
   <si>
     <t>Member ID</t>
   </si>
@@ -391,15 +392,358 @@
   </si>
   <si>
     <t xml:space="preserve">PADRE </t>
+  </si>
+  <si>
+    <t>ALVES</t>
+  </si>
+  <si>
+    <t>CLIFF JR</t>
+  </si>
+  <si>
+    <t>RM/NP</t>
+  </si>
+  <si>
+    <t>BOUDROW</t>
+  </si>
+  <si>
+    <t>GERORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BRENNAN</t>
+  </si>
+  <si>
+    <t>WILLIAM C.</t>
+  </si>
+  <si>
+    <t>6 TOLMAN STREET</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>810-841-7778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOUTMAN JR </t>
+  </si>
+  <si>
+    <t>ROBERT K.</t>
+  </si>
+  <si>
+    <t>12 RUSSEL AVE</t>
+  </si>
+  <si>
+    <t>978-283-8125</t>
+  </si>
+  <si>
+    <t>COSTA</t>
+  </si>
+  <si>
+    <t>TIMOTHY</t>
+  </si>
+  <si>
+    <t>28 BURNHAM STREET</t>
+  </si>
+  <si>
+    <t>978-283-8947</t>
+  </si>
+  <si>
+    <t>Cutler</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>bacutler89@comcast,net</t>
+  </si>
+  <si>
+    <t>DUFFANY</t>
+  </si>
+  <si>
+    <t>SCOTT B.</t>
+  </si>
+  <si>
+    <t>9 ELIZABETH ROAD</t>
+  </si>
+  <si>
+    <t>978-375-5856</t>
+  </si>
+  <si>
+    <t>Enos</t>
+  </si>
+  <si>
+    <t>Micheal</t>
+  </si>
+  <si>
+    <t>263 Washington Street</t>
+  </si>
+  <si>
+    <t>978-290-1483</t>
+  </si>
+  <si>
+    <t>michaelenos9@gmail.com</t>
+  </si>
+  <si>
+    <t>FIGURIDO</t>
+  </si>
+  <si>
+    <t>STEPHEN B.</t>
+  </si>
+  <si>
+    <t>2 GREAT LEDGE LANE</t>
+  </si>
+  <si>
+    <t>978-283-2280</t>
+  </si>
+  <si>
+    <t>978-283-0161</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>4 Sargent</t>
+  </si>
+  <si>
+    <t>978-387-3423</t>
+  </si>
+  <si>
+    <t>thefrancisflat@aol.com</t>
+  </si>
+  <si>
+    <t>GERSTNER</t>
+  </si>
+  <si>
+    <t>WAYNE F.</t>
+  </si>
+  <si>
+    <t>17 MYSTIC AVE</t>
+  </si>
+  <si>
+    <t>978-559-1657</t>
+  </si>
+  <si>
+    <t>wayjo99@Hotmail.com</t>
+  </si>
+  <si>
+    <t>LACERDA</t>
+  </si>
+  <si>
+    <t>DONALD</t>
+  </si>
+  <si>
+    <t>12 MACOMBER ROAD</t>
+  </si>
+  <si>
+    <t>978-283-3465</t>
+  </si>
+  <si>
+    <t>JAMES O.</t>
+  </si>
+  <si>
+    <t>6 BAKER STREET</t>
+  </si>
+  <si>
+    <t>978-281-1054</t>
+  </si>
+  <si>
+    <t>MACHADO</t>
+  </si>
+  <si>
+    <t>HELDER</t>
+  </si>
+  <si>
+    <t>147 EASTERN AVE</t>
+  </si>
+  <si>
+    <t>978-985-8484</t>
+  </si>
+  <si>
+    <t>MILLER</t>
+  </si>
+  <si>
+    <t>PAUL R</t>
+  </si>
+  <si>
+    <t>105 DUANE STREET APT #18F</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>10007-3606</t>
+  </si>
+  <si>
+    <t>212-677-0027</t>
+  </si>
+  <si>
+    <t>917-204-1948</t>
+  </si>
+  <si>
+    <t>paulmiller@nyc.rr.com</t>
+  </si>
+  <si>
+    <t>10/21/10/</t>
+  </si>
+  <si>
+    <t>1 GARDNER TERRACE</t>
+  </si>
+  <si>
+    <t>978-283-6389</t>
+  </si>
+  <si>
+    <t>gardenconcepts@verizon.net</t>
+  </si>
+  <si>
+    <t>MILONE</t>
+  </si>
+  <si>
+    <t>ROSARIO F.</t>
+  </si>
+  <si>
+    <t>45 ENGLEWOOD ROAD</t>
+  </si>
+  <si>
+    <t>MAGNOLIA</t>
+  </si>
+  <si>
+    <t>978-525-3564</t>
+  </si>
+  <si>
+    <t>rmilone@verizon.net</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>30 Webster Street</t>
+  </si>
+  <si>
+    <t>MORGAN</t>
+  </si>
+  <si>
+    <t>HENRY III</t>
+  </si>
+  <si>
+    <t>11 JUNIPER ROAD</t>
+  </si>
+  <si>
+    <t>978-283-3680</t>
+  </si>
+  <si>
+    <t>heloc11@verizon.net</t>
+  </si>
+  <si>
+    <t>MOULTON</t>
+  </si>
+  <si>
+    <t>JEFFREY</t>
+  </si>
+  <si>
+    <t>11 WOOD DRIVE</t>
+  </si>
+  <si>
+    <t>ATKINSON</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>603-489-1851</t>
+  </si>
+  <si>
+    <t>978-879-8018</t>
+  </si>
+  <si>
+    <t>captjeff0972@aol.com</t>
+  </si>
+  <si>
+    <t>PATA, JR</t>
+  </si>
+  <si>
+    <t>JOHN J.</t>
+  </si>
+  <si>
+    <t>16 OAK STREET   Apt #2</t>
+  </si>
+  <si>
+    <t>978-283-1161</t>
+  </si>
+  <si>
+    <t>john.pata@verizon.net</t>
+  </si>
+  <si>
+    <t>POOLE</t>
+  </si>
+  <si>
+    <t>THOMAS N.</t>
+  </si>
+  <si>
+    <t>8 GROVE STREET</t>
+  </si>
+  <si>
+    <t>978-412-6348</t>
+  </si>
+  <si>
+    <t>SAWYER</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>16 APPLE STREET</t>
+  </si>
+  <si>
+    <t>978-578-0541</t>
+  </si>
+  <si>
+    <t>PROFILER11@VERIZON.NET</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>FRANCIS</t>
+  </si>
+  <si>
+    <t>TARR</t>
+  </si>
+  <si>
+    <t>JEFFREY W</t>
+  </si>
+  <si>
+    <t>49 HARTZ STREET</t>
+  </si>
+  <si>
+    <t>978-420-6210</t>
+  </si>
+  <si>
+    <t>jwtarr61@yahoo.com</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="General;[Red]\-General"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -469,7 +813,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +828,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -693,39 +1043,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F1727A-FAEF-433F-A735-662FCF70F4C6}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,43 +1494,43 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="44"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="44"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="44"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="16">
         <v>1930</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="46">
         <v>45708</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="46">
         <v>45735</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="46">
         <v>24350</v>
       </c>
       <c r="Q2" s="44"/>
@@ -1172,77 +1538,77 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="44"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="44"/>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="16">
         <v>1930</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
       <c r="Q3" s="44"/>
       <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="44"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="16">
         <v>1930</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="52" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="18">
         <v>44261</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="18">
         <v>44489</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="18">
         <v>28143</v>
       </c>
       <c r="Q4" s="44"/>
@@ -1250,43 +1616,43 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="44"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="16">
         <v>1930</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="18">
         <v>45664</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="18">
         <v>45664</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="18">
         <v>18089</v>
       </c>
       <c r="Q5" s="44"/>
@@ -1294,43 +1660,43 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="44"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="44"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="16">
         <v>1930</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="18">
         <v>45659</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="18">
         <v>45677</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="18">
         <v>22010</v>
       </c>
       <c r="Q6" s="44"/>
@@ -1338,39 +1704,39 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="44"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="44"/>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="16">
         <v>1930</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53">
+      <c r="M7" s="47"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18">
         <v>45770</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="18">
         <v>22543</v>
       </c>
       <c r="Q7" s="44"/>
@@ -1379,39 +1745,39 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="44"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="44"/>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="16">
         <v>1930</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48">
+      <c r="K8" s="16"/>
+      <c r="L8" s="16">
         <v>9788799390</v>
       </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53">
+      <c r="M8" s="47"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18">
         <v>45833</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="18">
         <v>32369</v>
       </c>
       <c r="Q8" s="44"/>
@@ -1420,39 +1786,39 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="44"/>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="44"/>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16">
         <v>9783175964</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53">
+      <c r="N9" s="18"/>
+      <c r="O9" s="18">
         <v>45833</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="18">
         <v>30028</v>
       </c>
       <c r="Q9" s="44"/>
@@ -1461,43 +1827,43 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="44"/>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="14" t="s">
         <v>73</v>
       </c>
       <c r="E10" s="44"/>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="16">
         <v>1966</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="18">
         <v>45399</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="18">
         <v>45399</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="18">
         <v>26597</v>
       </c>
       <c r="Q10" s="44"/>
@@ -1506,39 +1872,39 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="44"/>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="44"/>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="16">
         <v>1930</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48" t="s">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53">
+      <c r="M11" s="47"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18">
         <v>45770</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="18">
         <v>26385</v>
       </c>
       <c r="Q11" s="44"/>
@@ -1547,43 +1913,43 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="44"/>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="44"/>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="16">
         <v>1930</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="53">
+      <c r="N12" s="18">
         <v>39489</v>
       </c>
-      <c r="O12" s="53">
+      <c r="O12" s="18">
         <v>39497</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="18">
         <v>20473</v>
       </c>
       <c r="Q12" s="44"/>
@@ -1592,43 +1958,43 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C13" s="44"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E13" s="44"/>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="16">
         <v>1930</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="49" t="s">
+      <c r="M13" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N13" s="18">
         <v>45625</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="18">
         <v>45625</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="18">
         <v>21524</v>
       </c>
       <c r="Q13" s="44"/>
@@ -1637,101 +2003,101 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="44"/>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="14" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="44"/>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="16">
         <v>1930</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
       <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="44"/>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="44"/>
       <c r="R15" s="45"/>
       <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="44"/>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="16">
         <v>1966</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53">
+      <c r="L16" s="16"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="18">
         <v>43860</v>
       </c>
-      <c r="O16" s="53">
+      <c r="O16" s="18">
         <v>43880</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="18">
         <v>19317</v>
       </c>
       <c r="Q16" s="44"/>
@@ -1740,41 +2106,41 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="14" t="s">
         <v>121</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="16">
         <v>1966</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53">
+      <c r="M17" s="47"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18">
         <v>45770</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="18">
         <v>15747</v>
       </c>
       <c r="Q17" s="44"/>
@@ -1783,45 +2149,45 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="44"/>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="16">
         <v>1930</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49" t="s">
+      <c r="L18" s="16"/>
+      <c r="M18" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="53">
+      <c r="N18" s="18">
         <v>42622</v>
       </c>
-      <c r="O18" s="53">
+      <c r="O18" s="18">
         <v>42662</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="18">
         <v>21836</v>
       </c>
       <c r="Q18" s="44"/>
@@ -1830,45 +2196,45 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="14" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="44"/>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="16">
         <v>1930</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49" t="s">
+      <c r="L19" s="16"/>
+      <c r="M19" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="53">
+      <c r="N19" s="18">
         <v>40305</v>
       </c>
-      <c r="O19" s="53">
+      <c r="O19" s="18">
         <v>40344</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="18">
         <v>19083</v>
       </c>
       <c r="Q19" s="44"/>
@@ -1877,41 +2243,41 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C20" s="44"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="14" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="47" t="s">
+      <c r="I20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48" t="s">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="53">
+      <c r="N20" s="18">
         <v>45503</v>
       </c>
-      <c r="O20" s="53">
+      <c r="O20" s="18">
         <v>45503</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="18">
         <v>23251</v>
       </c>
       <c r="Q20" s="44"/>
@@ -1920,82 +2286,82 @@
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="14" t="s">
         <v>110</v>
       </c>
       <c r="C21" s="44"/>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="49" t="s">
         <v>109</v>
       </c>
       <c r="E21" s="44"/>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48" t="s">
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53">
+      <c r="M21" s="47"/>
+      <c r="N21" s="18">
         <v>45717</v>
       </c>
-      <c r="O21" s="53">
+      <c r="O21" s="18">
         <v>45352</v>
       </c>
-      <c r="P21" s="53"/>
+      <c r="P21" s="18"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="45"/>
       <c r="S21" s="21"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="14" t="s">
         <v>109</v>
       </c>
       <c r="E22" s="44"/>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="16">
         <v>1930</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="48"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53">
+      <c r="L22" s="16"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="18">
         <v>43355</v>
       </c>
-      <c r="O22" s="53">
+      <c r="O22" s="18">
         <v>43361</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="18">
         <v>25575</v>
       </c>
       <c r="Q22" s="44"/>
@@ -2004,66 +2370,66 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="44"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="14" t="s">
         <v>116</v>
       </c>
       <c r="E23" s="44"/>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47" t="s">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="16">
         <v>1930</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
       <c r="Q23" s="44"/>
       <c r="R23" s="45"/>
       <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C24" s="44"/>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E24" s="44"/>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="16">
         <v>1930</v>
       </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
       <c r="S24" s="12"/>
@@ -3724,4 +4090,1269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B025113-0AF7-48B8-9BBF-95A74A66AC30}">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+    </row>
+    <row r="4" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="55">
+        <v>43313</v>
+      </c>
+      <c r="O4" s="55">
+        <v>43315</v>
+      </c>
+      <c r="P4" s="55">
+        <v>23648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55">
+        <v>38470</v>
+      </c>
+      <c r="O5" s="55">
+        <v>43034</v>
+      </c>
+      <c r="P5" s="55">
+        <v>15924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="55">
+        <v>31426</v>
+      </c>
+      <c r="O6" s="55">
+        <v>31554</v>
+      </c>
+      <c r="P6" s="55">
+        <v>21762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="55">
+        <v>30787</v>
+      </c>
+      <c r="O7" s="55">
+        <v>30833</v>
+      </c>
+      <c r="P7" s="55">
+        <v>22049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+    </row>
+    <row r="9" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" s="54"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="55">
+        <v>41900</v>
+      </c>
+      <c r="O9" s="55">
+        <v>41934</v>
+      </c>
+      <c r="P9" s="55">
+        <v>23021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="N10" s="55">
+        <v>45466</v>
+      </c>
+      <c r="O10" s="55">
+        <v>45466</v>
+      </c>
+      <c r="P10" s="55">
+        <v>25421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55">
+        <v>39995</v>
+      </c>
+      <c r="O11" s="55">
+        <v>40041</v>
+      </c>
+      <c r="P11" s="55">
+        <v>18821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="N12" s="55">
+        <v>45583</v>
+      </c>
+      <c r="O12" s="55">
+        <v>45583</v>
+      </c>
+      <c r="P12" s="55">
+        <v>21957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="59">
+        <v>1930</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="53"/>
+      <c r="M13" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13" s="60">
+        <v>42918</v>
+      </c>
+      <c r="O13" s="60">
+        <v>42934</v>
+      </c>
+      <c r="P13" s="60">
+        <v>20580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="55">
+        <v>42972</v>
+      </c>
+      <c r="O14" s="55">
+        <v>43034</v>
+      </c>
+      <c r="P14" s="55">
+        <v>16741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55">
+        <v>40982</v>
+      </c>
+      <c r="P15" s="55">
+        <v>23490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="55">
+        <v>42392</v>
+      </c>
+      <c r="O16" s="55">
+        <v>42417</v>
+      </c>
+      <c r="P16" s="55">
+        <v>22017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" s="55">
+        <v>40500</v>
+      </c>
+      <c r="P17" s="55">
+        <v>17584</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="54"/>
+      <c r="M18" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="55">
+        <v>34747</v>
+      </c>
+      <c r="O18" s="55">
+        <v>34781</v>
+      </c>
+      <c r="P18" s="55">
+        <v>24960</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="55">
+        <v>37122</v>
+      </c>
+      <c r="O19" s="55">
+        <v>41934</v>
+      </c>
+      <c r="P19" s="55">
+        <v>13466</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+    </row>
+    <row r="21" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55">
+        <v>36434</v>
+      </c>
+      <c r="P21" s="55">
+        <v>21710</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="54">
+        <v>3811</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="55">
+        <v>36740</v>
+      </c>
+      <c r="O22" s="55">
+        <v>36825</v>
+      </c>
+      <c r="P22" s="55">
+        <v>29847</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" s="54"/>
+      <c r="M23" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="N23" s="55">
+        <v>39651</v>
+      </c>
+      <c r="O23" s="55">
+        <v>39672</v>
+      </c>
+      <c r="P23" s="55">
+        <v>25861</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" s="56"/>
+      <c r="N24" s="55">
+        <v>38333</v>
+      </c>
+      <c r="O24" s="55">
+        <v>43034</v>
+      </c>
+      <c r="P24" s="55">
+        <v>21885</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K25" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" s="54"/>
+      <c r="M25" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="N25" s="55">
+        <v>45134</v>
+      </c>
+      <c r="O25" s="55">
+        <v>45159</v>
+      </c>
+      <c r="P25" s="55">
+        <v>21690</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+    </row>
+    <row r="27" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K27" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" s="54"/>
+      <c r="M27" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="N27" s="55">
+        <v>38056</v>
+      </c>
+      <c r="O27" s="55">
+        <v>42963</v>
+      </c>
+      <c r="P27" s="55">
+        <v>22285</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="55">
+        <v>43313</v>
+      </c>
+      <c r="O35" s="62">
+        <v>43315</v>
+      </c>
+      <c r="P35" s="55">
+        <v>23648</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K36" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="56"/>
+      <c r="N36" s="55">
+        <v>38470</v>
+      </c>
+      <c r="O36" s="62">
+        <v>43034</v>
+      </c>
+      <c r="P36" s="55">
+        <v>15924</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K37" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="L37" s="54"/>
+      <c r="M37" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" s="55">
+        <v>34747</v>
+      </c>
+      <c r="O37" s="62">
+        <v>34781</v>
+      </c>
+      <c r="P37" s="55">
+        <v>24960</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="L38" s="54"/>
+      <c r="M38" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="N38" s="55">
+        <v>37122</v>
+      </c>
+      <c r="O38" s="62">
+        <v>41934</v>
+      </c>
+      <c r="P38" s="55">
+        <v>13466</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K39" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="L39" s="54"/>
+      <c r="M39" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" s="55"/>
+      <c r="O39" s="62">
+        <v>36434</v>
+      </c>
+      <c r="P39" s="55">
+        <v>21710</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="J40" s="54">
+        <v>3811</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="M40" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="N40" s="55">
+        <v>36740</v>
+      </c>
+      <c r="O40" s="62">
+        <v>36825</v>
+      </c>
+      <c r="P40" s="55">
+        <v>29847</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="54">
+        <v>1930</v>
+      </c>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="M41" s="56"/>
+      <c r="N41" s="55">
+        <v>38333</v>
+      </c>
+      <c r="O41" s="62">
+        <v>43034</v>
+      </c>
+      <c r="P41" s="55">
+        <v>21885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Members.xlsx
+++ b/docs/Members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnsil\Documents\GFC\cursor files\GFC-System\GFC-Studio V2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA35CB-4446-4939-85D4-4C767EFBB5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2318C-4243-4E1D-9390-60DADC93B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F186F330-01AE-4AE8-BCC6-D9E3A3A42AC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F186F330-01AE-4AE8-BCC6-D9E3A3A42AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="137">
   <si>
     <t>Member ID</t>
   </si>
@@ -82,324 +82,18 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
-    <t>jr</t>
-  </si>
-  <si>
     <t>GLOUCESTER</t>
   </si>
   <si>
-    <t>MIKE</t>
-  </si>
-  <si>
-    <t>JOHN</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>KEVIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICHARD </t>
-  </si>
-  <si>
     <t>LANE</t>
   </si>
   <si>
-    <t>MACFARLAND</t>
-  </si>
-  <si>
-    <t>11 CHAPEL STREET</t>
-  </si>
-  <si>
-    <t>978-281-4913</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDWARD </t>
-  </si>
-  <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>ROCKPORT</t>
-  </si>
-  <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>289 WASHINGTON STREET</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>Aubrey</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>77 Concord Street</t>
-  </si>
-  <si>
-    <t>978-375-8186</t>
-  </si>
-  <si>
-    <t>Baubrey@WTRich</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>BELANGER</t>
-  </si>
-  <si>
-    <t>ARTHER</t>
-  </si>
-  <si>
-    <t>BELCHER</t>
-  </si>
-  <si>
-    <t>30 NEW WAY LANE</t>
-  </si>
-  <si>
-    <t>978-290-7973</t>
-  </si>
-  <si>
-    <t>JAMES4-7810@YAHOO.COM</t>
-  </si>
-  <si>
-    <t>Bubier</t>
-  </si>
-  <si>
-    <t>36 Wolf Hill Road</t>
-  </si>
-  <si>
-    <t>978-771-8127</t>
-  </si>
-  <si>
-    <t>thomasbubier49@gmail.com</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>ASDRUBAL</t>
-  </si>
-  <si>
-    <t>12 BRIGHTSIDE AVE.</t>
-  </si>
-  <si>
-    <t>978-335-7610</t>
-  </si>
-  <si>
-    <t>LASBAMBUAS@gmail.com</t>
-  </si>
-  <si>
-    <t>DAVIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEPHEN </t>
-  </si>
-  <si>
-    <t>17 SADLER STREET</t>
-  </si>
-  <si>
-    <t>978-491-6074</t>
-  </si>
-  <si>
-    <t>DeWolfe</t>
-  </si>
-  <si>
-    <t>Dominic</t>
-  </si>
-  <si>
-    <t>Garry</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>5 Dundi Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beverly </t>
-  </si>
-  <si>
     <t>Ma</t>
   </si>
   <si>
-    <t>youngestgarry@yahoo.com</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>10 Echo Lane</t>
-  </si>
-  <si>
-    <t>Rockport</t>
-  </si>
-  <si>
-    <t>978-804-0610</t>
-  </si>
-  <si>
-    <t>aleluk69@yahoo.com</t>
-  </si>
-  <si>
-    <t>49 MANSFIELD STREET</t>
-  </si>
-  <si>
-    <t>978-815-0100</t>
-  </si>
-  <si>
-    <t>smacfarland@macgray.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall </t>
-  </si>
-  <si>
-    <t>Mitch</t>
-  </si>
-  <si>
-    <t>11 Stage Fort Ave</t>
-  </si>
-  <si>
-    <t>617-719-1997</t>
-  </si>
-  <si>
-    <t>mitchmarshall@msn.com</t>
-  </si>
-  <si>
-    <t>Movalli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muniz </t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>O CONNER</t>
-  </si>
-  <si>
-    <t>40 BROADWAY</t>
-  </si>
-  <si>
-    <t>978-833-6030</t>
-  </si>
-  <si>
-    <t>9 R SMITH ST.CT.</t>
-  </si>
-  <si>
-    <t>978/491/0405</t>
-  </si>
-  <si>
-    <t>REARDON</t>
-  </si>
-  <si>
-    <t>33 EASTMAIN STREET</t>
-  </si>
-  <si>
-    <t>978-317-3947</t>
-  </si>
-  <si>
-    <t>elr1357@comcast.net</t>
-  </si>
-  <si>
-    <t>RODGERS</t>
-  </si>
-  <si>
-    <t>82 EASTERN AVENUE</t>
-  </si>
-  <si>
-    <t>978-790-5888</t>
-  </si>
-  <si>
-    <t>rrogers@mail.danvers-ma.org</t>
-  </si>
-  <si>
-    <t>Stamos</t>
-  </si>
-  <si>
-    <t>Constantine</t>
-  </si>
-  <si>
-    <t>125 Old Bolton Road</t>
-  </si>
-  <si>
-    <t>STOW</t>
-  </si>
-  <si>
-    <t>617-901-4655</t>
-  </si>
-  <si>
-    <t>constantinestamos@hotmail.com</t>
-  </si>
-  <si>
-    <t>STANTON</t>
-  </si>
-  <si>
-    <t>GARY</t>
-  </si>
-  <si>
-    <t>30COUNTRY ROAD</t>
-  </si>
-  <si>
-    <t>ESSEX</t>
-  </si>
-  <si>
-    <t>978-508-4289</t>
-  </si>
-  <si>
-    <t>71 WHEELER ST</t>
-  </si>
-  <si>
-    <t>781-856-1750</t>
-  </si>
-  <si>
-    <t>Wheeler</t>
-  </si>
-  <si>
-    <t>Glenn</t>
-  </si>
-  <si>
-    <t>Whipple</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLEN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PADRE </t>
-  </si>
-  <si>
-    <t>ALVES</t>
-  </si>
-  <si>
-    <t>CLIFF JR</t>
-  </si>
-  <si>
     <t>RM/NP</t>
   </si>
   <si>
@@ -734,6 +428,15 @@
   </si>
   <si>
     <t>REGULAR</t>
+  </si>
+  <si>
+    <t>GUEST</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -918,7 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -987,9 +690,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,53 +747,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1411,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F1727A-FAEF-433F-A735-662FCF70F4C6}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,984 +1166,1094 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
+      <c r="A2" s="43"/>
+      <c r="B2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="16">
         <v>1930</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="46">
-        <v>45708</v>
-      </c>
-      <c r="O2" s="46">
-        <v>45735</v>
-      </c>
-      <c r="P2" s="46">
-        <v>24350</v>
-      </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="18">
+        <v>43313</v>
+      </c>
+      <c r="O2" s="18">
+        <v>43315</v>
+      </c>
+      <c r="P2" s="18">
+        <v>23648</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="44"/>
+        <v>27</v>
+      </c>
+      <c r="C3"/>
       <c r="D3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="16">
         <v>1930</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="18">
+        <v>38470</v>
+      </c>
+      <c r="O3" s="18">
+        <v>43034</v>
+      </c>
+      <c r="P3" s="18">
+        <v>15924</v>
+      </c>
+      <c r="Q3" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>24</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="E4"/>
       <c r="F4" s="15" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="16">
         <v>1930</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="47" t="s">
-        <v>51</v>
-      </c>
+      <c r="M4" s="33"/>
       <c r="N4" s="18">
-        <v>44261</v>
+        <v>31426</v>
       </c>
       <c r="O4" s="18">
-        <v>44489</v>
+        <v>31554</v>
       </c>
       <c r="P4" s="18">
-        <v>28143</v>
-      </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
+        <v>21762</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="J5" s="16">
         <v>1930</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="K5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="18">
-        <v>45664</v>
+        <v>30787</v>
       </c>
       <c r="O5" s="18">
-        <v>45664</v>
+        <v>30833</v>
       </c>
       <c r="P5" s="18">
-        <v>18089</v>
-      </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
+        <v>22049</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="44"/>
+        <v>39</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>58</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="16">
         <v>1930</v>
       </c>
       <c r="K6" s="16"/>
-      <c r="L6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="18">
-        <v>45659</v>
-      </c>
-      <c r="O6" s="18">
-        <v>45677</v>
-      </c>
-      <c r="P6" s="18">
-        <v>22010</v>
-      </c>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="45"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="44"/>
+        <v>43</v>
+      </c>
+      <c r="C7"/>
       <c r="D7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="44"/>
+        <v>42</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" s="15" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="16">
         <v>1930</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="18"/>
+      <c r="K7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="18">
+        <v>41900</v>
+      </c>
       <c r="O7" s="18">
-        <v>45770</v>
+        <v>41934</v>
       </c>
       <c r="P7" s="18">
-        <v>22543</v>
-      </c>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="45"/>
+        <v>23021</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7" s="44"/>
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="44"/>
+        <v>47</v>
+      </c>
+      <c r="C8"/>
       <c r="D8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="44"/>
+        <v>46</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" s="15" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="J8" s="16">
         <v>1930</v>
       </c>
       <c r="K8" s="16"/>
-      <c r="L8" s="16">
-        <v>9788799390</v>
-      </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="18"/>
+      <c r="L8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="18">
+        <v>45466</v>
+      </c>
       <c r="O8" s="18">
-        <v>45833</v>
+        <v>45466</v>
       </c>
       <c r="P8" s="18">
-        <v>32369</v>
-      </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="45"/>
+        <v>25421</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="44"/>
       <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="18">
+        <v>39995</v>
+      </c>
+      <c r="O9" s="18">
+        <v>40041</v>
+      </c>
+      <c r="P9" s="18">
+        <v>18821</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9" s="44"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="18">
+        <v>45583</v>
+      </c>
+      <c r="O10" s="18">
+        <v>45583</v>
+      </c>
+      <c r="P10" s="18">
+        <v>21957</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10" s="44"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="47">
+        <v>1930</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="48">
+        <v>42918</v>
+      </c>
+      <c r="O11" s="48">
+        <v>42934</v>
+      </c>
+      <c r="P11" s="48">
+        <v>20580</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="44"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16">
-        <v>9783175964</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18">
-        <v>45833</v>
-      </c>
-      <c r="P9" s="18">
-        <v>30028</v>
-      </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="16">
-        <v>1966</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="18">
-        <v>45399</v>
-      </c>
-      <c r="O10" s="18">
-        <v>45399</v>
-      </c>
-      <c r="P10" s="18">
-        <v>26597</v>
-      </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="16">
-        <v>1930</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18">
-        <v>45770</v>
-      </c>
-      <c r="P11" s="18">
-        <v>26385</v>
-      </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="19"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="16">
         <v>1930</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="L12" s="16"/>
-      <c r="M12" t="s">
-        <v>81</v>
-      </c>
+      <c r="M12" s="33"/>
       <c r="N12" s="18">
-        <v>39489</v>
+        <v>42972</v>
       </c>
       <c r="O12" s="18">
-        <v>39497</v>
+        <v>43034</v>
       </c>
       <c r="P12" s="18">
-        <v>20473</v>
-      </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45"/>
+        <v>16741</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R12" s="44"/>
       <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="44"/>
+        <v>70</v>
+      </c>
+      <c r="C13"/>
       <c r="D13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="44"/>
+        <v>20</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" s="15" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="16">
         <v>1930</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="18">
-        <v>45625</v>
-      </c>
+      <c r="K13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="18">
-        <v>45625</v>
+        <v>40982</v>
       </c>
       <c r="P13" s="18">
-        <v>21524</v>
-      </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="45"/>
+        <v>23490</v>
+      </c>
+      <c r="Q13" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R13" s="44"/>
       <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="44"/>
+        <v>74</v>
+      </c>
+      <c r="C14"/>
       <c r="D14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="44"/>
+        <v>73</v>
+      </c>
+      <c r="E14"/>
       <c r="F14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="H14" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="16">
         <v>1930</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="L14" s="16"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="18">
+        <v>42392</v>
+      </c>
+      <c r="O14" s="18">
+        <v>42417</v>
+      </c>
+      <c r="P14" s="18">
+        <v>22017</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R14" s="44"/>
       <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="18">
+        <v>40500</v>
+      </c>
+      <c r="P15" s="18">
+        <v>17584</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R15" s="44"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="14" t="s">
+      <c r="N16" s="18">
+        <v>34747</v>
+      </c>
+      <c r="O16" s="18">
+        <v>34781</v>
+      </c>
+      <c r="P16" s="18">
+        <v>24960</v>
+      </c>
+      <c r="Q16" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R16" s="44"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="E17"/>
+      <c r="F17" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="18">
+        <v>37122</v>
+      </c>
+      <c r="O17" s="18">
+        <v>41934</v>
+      </c>
+      <c r="P17" s="18">
+        <v>13466</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R17" s="44"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="16">
-        <v>1966</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="18">
-        <v>43860</v>
-      </c>
-      <c r="O16" s="18">
-        <v>43880</v>
-      </c>
-      <c r="P16" s="18">
-        <v>19317</v>
-      </c>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1966</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18">
-        <v>45770</v>
-      </c>
-      <c r="P17" s="18">
-        <v>15747</v>
-      </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="I18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="16">
         <v>1930</v>
       </c>
-      <c r="K18" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="18">
-        <v>42622</v>
-      </c>
-      <c r="O18" s="18">
-        <v>42662</v>
-      </c>
-      <c r="P18" s="18">
-        <v>21836</v>
-      </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="45"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="44"/>
       <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>25</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C19"/>
       <c r="D19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19"/>
       <c r="F19" s="15" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="16">
         <v>1930</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" s="16"/>
-      <c r="M19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="18">
-        <v>40305</v>
-      </c>
+      <c r="M19" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="18"/>
       <c r="O19" s="18">
-        <v>40344</v>
+        <v>36434</v>
       </c>
       <c r="P19" s="18">
-        <v>19083</v>
-      </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="45"/>
+        <v>21710</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="44"/>
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="44"/>
+      <c r="E20"/>
       <c r="F20" s="15" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="16">
+        <v>3811</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="18">
+        <v>36740</v>
+      </c>
+      <c r="O20" s="18">
+        <v>36825</v>
+      </c>
+      <c r="P20" s="18">
+        <v>29847</v>
+      </c>
+      <c r="Q20" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R20" s="44"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="18">
-        <v>45503</v>
-      </c>
-      <c r="O20" s="18">
-        <v>45503</v>
-      </c>
-      <c r="P20" s="18">
-        <v>23251</v>
-      </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>112</v>
-      </c>
       <c r="I21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="18">
+        <v>39651</v>
+      </c>
+      <c r="O21" s="18">
+        <v>39672</v>
+      </c>
+      <c r="P21" s="18">
+        <v>25861</v>
+      </c>
+      <c r="Q21" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="44"/>
+      <c r="S21" s="21"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="18">
-        <v>45717</v>
-      </c>
-      <c r="O21" s="18">
-        <v>45352</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="21"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="I22" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" s="16">
         <v>1930</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="47"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="33"/>
       <c r="N22" s="18">
-        <v>43355</v>
+        <v>38333</v>
       </c>
       <c r="O22" s="18">
-        <v>43361</v>
+        <v>43034</v>
       </c>
       <c r="P22" s="18">
-        <v>25575</v>
-      </c>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="45"/>
+        <v>21885</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="R22" s="44"/>
       <c r="S22" s="12"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="44"/>
+        <v>122</v>
+      </c>
+      <c r="C23"/>
       <c r="D23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="44"/>
+        <v>121</v>
+      </c>
+      <c r="E23"/>
       <c r="F23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="14"/>
+        <v>133</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="H23" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" s="16">
         <v>1930</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="L23" s="16"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
+      <c r="M23" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N23" s="18">
+        <v>45134</v>
+      </c>
+      <c r="O23" s="18">
+        <v>45159</v>
+      </c>
+      <c r="P23" s="18">
+        <v>21690</v>
+      </c>
+      <c r="Q23" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R23" s="44"/>
       <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="44"/>
+        <v>127</v>
+      </c>
+      <c r="C24"/>
       <c r="D24" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="44"/>
+        <v>126</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" s="15" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="16">
         <v>1930</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="50"/>
+      <c r="M24" s="39"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
+      <c r="Q24" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="R24" s="44"/>
       <c r="S24" s="12"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="10"/>
+      <c r="B25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="N25" s="18">
+        <v>38056</v>
+      </c>
+      <c r="O25" s="18">
+        <v>42963</v>
+      </c>
+      <c r="P25" s="18">
+        <v>22285</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>136</v>
+      </c>
       <c r="S25" s="12"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="10"/>
-      <c r="S26" s="25"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" s="52"/>
+      <c r="S26" s="24"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
@@ -2541,7 +2324,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="26"/>
+      <c r="M30" s="25"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -2559,7 +2342,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="27"/>
+      <c r="L31" s="26"/>
       <c r="M31" s="13"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -2568,21 +2351,21 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="29"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="10"/>
       <c r="S32" s="12"/>
     </row>
@@ -2598,7 +2381,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="31"/>
+      <c r="M33" s="30"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -2622,7 +2405,7 @@
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="10"/>
-      <c r="S34" s="32"/>
+      <c r="S34" s="31"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
@@ -2679,7 +2462,7 @@
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="10"/>
-      <c r="S37" s="33"/>
+      <c r="S37" s="32"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
@@ -2693,7 +2476,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="26"/>
+      <c r="M38" s="25"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -2712,7 +2495,7 @@
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
-      <c r="M39" s="34"/>
+      <c r="M39" s="33"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
@@ -2902,12 +2685,12 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="31"/>
+      <c r="M49" s="30"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
-      <c r="S49" s="25"/>
+      <c r="S49" s="24"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
@@ -2921,7 +2704,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="31"/>
+      <c r="M50" s="30"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
@@ -3054,10 +2837,10 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
       <c r="Q57" s="10"/>
       <c r="S57" s="12"/>
     </row>
@@ -3097,7 +2880,7 @@
       <c r="O59" s="18"/>
       <c r="P59" s="18"/>
       <c r="Q59" s="10"/>
-      <c r="S59" s="37"/>
+      <c r="S59" s="36"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
@@ -3116,7 +2899,7 @@
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
       <c r="Q60" s="10"/>
-      <c r="S60" s="38"/>
+      <c r="S60" s="37"/>
     </row>
     <row r="61" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
@@ -3135,7 +2918,7 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
       <c r="Q61" s="10"/>
-      <c r="S61" s="39"/>
+      <c r="S61" s="38"/>
     </row>
     <row r="62" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
@@ -3149,7 +2932,7 @@
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
-      <c r="M62" s="40"/>
+      <c r="M62" s="39"/>
       <c r="N62" s="18"/>
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
@@ -3168,7 +2951,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="35"/>
+      <c r="M63" s="34"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9"/>
@@ -3178,8 +2961,8 @@
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="6"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3205,7 +2988,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
-      <c r="L65" s="27"/>
+      <c r="L65" s="26"/>
       <c r="M65" s="13"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
@@ -3244,12 +3027,12 @@
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
-      <c r="M67" s="41"/>
+      <c r="M67" s="40"/>
       <c r="N67" s="18"/>
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
       <c r="Q67" s="10"/>
-      <c r="S67" s="42"/>
+      <c r="S67" s="41"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
@@ -3263,12 +3046,12 @@
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
-      <c r="M68" s="41"/>
+      <c r="M68" s="40"/>
       <c r="N68" s="18"/>
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
       <c r="Q68" s="10"/>
-      <c r="S68" s="42"/>
+      <c r="S68" s="41"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
@@ -3282,12 +3065,12 @@
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
-      <c r="M69" s="41"/>
+      <c r="M69" s="40"/>
       <c r="N69" s="18"/>
       <c r="O69" s="18"/>
       <c r="P69" s="18"/>
       <c r="Q69" s="10"/>
-      <c r="S69" s="42"/>
+      <c r="S69" s="41"/>
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
@@ -3306,7 +3089,7 @@
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
       <c r="Q70" s="10"/>
-      <c r="S70" s="42"/>
+      <c r="S70" s="41"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
@@ -3325,7 +3108,7 @@
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
       <c r="Q71" s="10"/>
-      <c r="S71" s="42"/>
+      <c r="S71" s="41"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
@@ -3344,7 +3127,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
       <c r="Q72" s="10"/>
-      <c r="S72" s="42"/>
+      <c r="S72" s="41"/>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
@@ -3363,7 +3146,7 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
       <c r="Q73" s="10"/>
-      <c r="S73" s="42"/>
+      <c r="S73" s="41"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
@@ -3382,7 +3165,7 @@
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
       <c r="Q74" s="10"/>
-      <c r="S74" s="42"/>
+      <c r="S74" s="41"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
@@ -3401,7 +3184,7 @@
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
       <c r="Q75" s="10"/>
-      <c r="S75" s="42"/>
+      <c r="S75" s="41"/>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
@@ -3415,12 +3198,12 @@
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
-      <c r="M76" s="41"/>
+      <c r="M76" s="40"/>
       <c r="N76" s="18"/>
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
       <c r="Q76" s="10"/>
-      <c r="S76" s="42"/>
+      <c r="S76" s="41"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
@@ -3439,7 +3222,7 @@
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
       <c r="Q77" s="10"/>
-      <c r="S77" s="42"/>
+      <c r="S77" s="41"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
@@ -3449,7 +3232,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="43"/>
+      <c r="I78" s="42"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
@@ -3458,7 +3241,7 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
       <c r="Q78" s="10"/>
-      <c r="S78" s="42"/>
+      <c r="S78" s="41"/>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
@@ -3472,12 +3255,12 @@
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
-      <c r="M79" s="41"/>
+      <c r="M79" s="40"/>
       <c r="N79" s="18"/>
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
       <c r="Q79" s="10"/>
-      <c r="S79" s="42"/>
+      <c r="S79" s="41"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
@@ -3491,12 +3274,12 @@
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="41"/>
+      <c r="M80" s="40"/>
       <c r="N80" s="18"/>
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
       <c r="Q80" s="10"/>
-      <c r="S80" s="42"/>
+      <c r="S80" s="41"/>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
@@ -3515,7 +3298,7 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
       <c r="Q81" s="10"/>
-      <c r="S81" s="42"/>
+      <c r="S81" s="41"/>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
@@ -3529,12 +3312,12 @@
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
-      <c r="M82" s="41"/>
+      <c r="M82" s="40"/>
       <c r="N82" s="18"/>
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
       <c r="Q82" s="10"/>
-      <c r="S82" s="42"/>
+      <c r="S82" s="41"/>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
@@ -3553,7 +3336,7 @@
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
       <c r="Q83" s="10"/>
-      <c r="S83" s="42"/>
+      <c r="S83" s="41"/>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
@@ -3572,7 +3355,7 @@
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
       <c r="Q84" s="10"/>
-      <c r="S84" s="42"/>
+      <c r="S84" s="41"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
@@ -3591,7 +3374,7 @@
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
       <c r="Q85" s="10"/>
-      <c r="S85" s="42"/>
+      <c r="S85" s="41"/>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
@@ -3610,7 +3393,7 @@
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
       <c r="Q86" s="10"/>
-      <c r="S86" s="42"/>
+      <c r="S86" s="41"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
@@ -3624,12 +3407,12 @@
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
-      <c r="M87" s="41"/>
+      <c r="M87" s="40"/>
       <c r="N87" s="18"/>
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
       <c r="Q87" s="10"/>
-      <c r="S87" s="42"/>
+      <c r="S87" s="41"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
@@ -3648,7 +3431,7 @@
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
       <c r="Q88" s="10"/>
-      <c r="S88" s="42"/>
+      <c r="S88" s="41"/>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
@@ -3662,12 +3445,12 @@
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
-      <c r="M89" s="41"/>
+      <c r="M89" s="40"/>
       <c r="N89" s="18"/>
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
       <c r="Q89" s="10"/>
-      <c r="S89" s="42"/>
+      <c r="S89" s="41"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
@@ -3686,7 +3469,7 @@
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
       <c r="Q90" s="10"/>
-      <c r="S90" s="42"/>
+      <c r="S90" s="41"/>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
@@ -3700,12 +3483,12 @@
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
-      <c r="M91" s="41"/>
+      <c r="M91" s="40"/>
       <c r="N91" s="18"/>
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
       <c r="Q91" s="10"/>
-      <c r="S91" s="42"/>
+      <c r="S91" s="41"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
@@ -3724,7 +3507,7 @@
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
       <c r="Q92" s="10"/>
-      <c r="S92" s="42"/>
+      <c r="S92" s="41"/>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
@@ -3743,7 +3526,7 @@
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
       <c r="Q93" s="10"/>
-      <c r="S93" s="42"/>
+      <c r="S93" s="41"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
@@ -3757,12 +3540,12 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="41"/>
+      <c r="M94" s="40"/>
       <c r="N94" s="18"/>
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
       <c r="Q94" s="10"/>
-      <c r="S94" s="42"/>
+      <c r="S94" s="41"/>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
@@ -3781,7 +3564,7 @@
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
       <c r="Q95" s="10"/>
-      <c r="S95" s="42"/>
+      <c r="S95" s="41"/>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="14"/>
@@ -3795,12 +3578,12 @@
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
-      <c r="M96" s="41"/>
+      <c r="M96" s="40"/>
       <c r="N96" s="18"/>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
       <c r="Q96" s="10"/>
-      <c r="S96" s="42"/>
+      <c r="S96" s="41"/>
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="14"/>
@@ -3814,12 +3597,12 @@
       <c r="J97" s="16"/>
       <c r="K97" s="16"/>
       <c r="L97" s="16"/>
-      <c r="M97" s="41"/>
+      <c r="M97" s="40"/>
       <c r="N97" s="18"/>
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
       <c r="Q97" s="10"/>
-      <c r="S97" s="42"/>
+      <c r="S97" s="41"/>
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="14"/>
@@ -3838,7 +3621,7 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
       <c r="Q98" s="10"/>
-      <c r="S98" s="42"/>
+      <c r="S98" s="41"/>
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="14"/>
@@ -3852,12 +3635,12 @@
       <c r="J99" s="16"/>
       <c r="K99" s="16"/>
       <c r="L99" s="16"/>
-      <c r="M99" s="41"/>
+      <c r="M99" s="40"/>
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
       <c r="Q99" s="10"/>
-      <c r="S99" s="42"/>
+      <c r="S99" s="41"/>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="14"/>
@@ -3871,12 +3654,12 @@
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
       <c r="L100" s="16"/>
-      <c r="M100" s="41"/>
+      <c r="M100" s="40"/>
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
       <c r="Q100" s="10"/>
-      <c r="S100" s="42"/>
+      <c r="S100" s="41"/>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="14"/>
@@ -3895,7 +3678,7 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
       <c r="Q101" s="10"/>
-      <c r="S101" s="42"/>
+      <c r="S101" s="41"/>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="14"/>
@@ -3914,7 +3697,7 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
       <c r="Q102" s="10"/>
-      <c r="S102" s="42"/>
+      <c r="S102" s="41"/>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103" s="14"/>
@@ -3933,7 +3716,7 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
       <c r="Q103" s="10"/>
-      <c r="S103" s="42"/>
+      <c r="S103" s="41"/>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104" s="14"/>
@@ -3947,12 +3730,12 @@
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
-      <c r="M104" s="41"/>
+      <c r="M104" s="40"/>
       <c r="N104" s="18"/>
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
       <c r="Q104" s="10"/>
-      <c r="S104" s="42"/>
+      <c r="S104" s="41"/>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105" s="14"/>
@@ -3971,7 +3754,7 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
       <c r="Q105" s="10"/>
-      <c r="S105" s="42"/>
+      <c r="S105" s="41"/>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106" s="14"/>
@@ -3985,12 +3768,12 @@
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
-      <c r="M106" s="41"/>
+      <c r="M106" s="40"/>
       <c r="N106" s="18"/>
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
       <c r="Q106" s="10"/>
-      <c r="S106" s="42"/>
+      <c r="S106" s="41"/>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107" s="14"/>
@@ -4009,7 +3792,7 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
       <c r="Q107" s="10"/>
-      <c r="S107" s="42"/>
+      <c r="S107" s="41"/>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108" s="14"/>
@@ -4028,7 +3811,7 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
       <c r="Q108" s="10"/>
-      <c r="S108" s="42"/>
+      <c r="S108" s="41"/>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109" s="14"/>
@@ -4042,12 +3825,12 @@
       <c r="J109" s="16"/>
       <c r="K109" s="16"/>
       <c r="L109" s="16"/>
-      <c r="M109" s="41"/>
+      <c r="M109" s="40"/>
       <c r="N109" s="18"/>
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
       <c r="Q109" s="10"/>
-      <c r="S109" s="42"/>
+      <c r="S109" s="41"/>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110" s="14"/>
@@ -4066,7 +3849,7 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
       <c r="Q110" s="10"/>
-      <c r="S110" s="42"/>
+      <c r="S110" s="41"/>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111" s="14"/>
@@ -4080,12 +3863,12 @@
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
-      <c r="M111" s="41"/>
+      <c r="M111" s="40"/>
       <c r="N111" s="18"/>
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
       <c r="Q111" s="10"/>
-      <c r="S111" s="42"/>
+      <c r="S111" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4096,8 +3879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B025113-0AF7-48B8-9BBF-95A74A66AC30}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,7 +3898,7 @@
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="52" customWidth="1"/>
     <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -4171,1184 +3954,1250 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="51" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="18">
+        <v>43313</v>
+      </c>
+      <c r="O4" s="18">
+        <v>43315</v>
+      </c>
+      <c r="P4" s="18">
+        <v>23648</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="33"/>
+      <c r="N5" s="18">
+        <v>38470</v>
+      </c>
+      <c r="O5" s="18">
+        <v>43034</v>
+      </c>
+      <c r="P5" s="18">
+        <v>15924</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="18">
+        <v>31426</v>
+      </c>
+      <c r="O6" s="18">
+        <v>31554</v>
+      </c>
+      <c r="P6" s="18">
+        <v>21762</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="18">
+        <v>30787</v>
+      </c>
+      <c r="O7" s="18">
+        <v>30833</v>
+      </c>
+      <c r="P7" s="18">
+        <v>22049</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="18">
+        <v>41900</v>
+      </c>
+      <c r="O9" s="18">
+        <v>41934</v>
+      </c>
+      <c r="P9" s="18">
+        <v>23021</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="18">
+        <v>45466</v>
+      </c>
+      <c r="O10" s="18">
+        <v>45466</v>
+      </c>
+      <c r="P10" s="18">
+        <v>25421</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="18">
+        <v>39995</v>
+      </c>
+      <c r="O11" s="18">
+        <v>40041</v>
+      </c>
+      <c r="P11" s="18">
+        <v>18821</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="18">
+        <v>45583</v>
+      </c>
+      <c r="O12" s="18">
+        <v>45583</v>
+      </c>
+      <c r="P12" s="18">
+        <v>21957</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="47">
+        <v>1930</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="48">
+        <v>42918</v>
+      </c>
+      <c r="O13" s="48">
+        <v>42934</v>
+      </c>
+      <c r="P13" s="48">
+        <v>20580</v>
+      </c>
+      <c r="Q13" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="18">
+        <v>42972</v>
+      </c>
+      <c r="O14" s="18">
+        <v>43034</v>
+      </c>
+      <c r="P14" s="18">
+        <v>16741</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18">
+        <v>40982</v>
+      </c>
+      <c r="P15" s="18">
+        <v>23490</v>
+      </c>
+      <c r="Q15" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="18">
+        <v>42392</v>
+      </c>
+      <c r="O16" s="18">
+        <v>42417</v>
+      </c>
+      <c r="P16" s="18">
+        <v>22017</v>
+      </c>
+      <c r="Q16" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17" s="18">
+        <v>40500</v>
+      </c>
+      <c r="P17" s="18">
+        <v>17584</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="18">
+        <v>34747</v>
+      </c>
+      <c r="O18" s="18">
+        <v>34781</v>
+      </c>
+      <c r="P18" s="18">
+        <v>24960</v>
+      </c>
+      <c r="Q18" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="18">
+        <v>37122</v>
+      </c>
+      <c r="O19" s="18">
+        <v>41934</v>
+      </c>
+      <c r="P19" s="18">
+        <v>13466</v>
+      </c>
+      <c r="Q19" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18">
+        <v>36434</v>
+      </c>
+      <c r="P21" s="18">
+        <v>21710</v>
+      </c>
+      <c r="Q21" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="16">
+        <v>3811</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="18">
+        <v>36740</v>
+      </c>
+      <c r="O22" s="18">
+        <v>36825</v>
+      </c>
+      <c r="P22" s="18">
+        <v>29847</v>
+      </c>
+      <c r="Q22" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="18">
+        <v>39651</v>
+      </c>
+      <c r="O23" s="18">
+        <v>39672</v>
+      </c>
+      <c r="P23" s="18">
+        <v>25861</v>
+      </c>
+      <c r="Q23" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="18">
+        <v>38333</v>
+      </c>
+      <c r="O24" s="18">
+        <v>43034</v>
+      </c>
+      <c r="P24" s="18">
+        <v>21885</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-    </row>
-    <row r="4" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="H25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="18">
+        <v>45134</v>
+      </c>
+      <c r="O25" s="18">
+        <v>45159</v>
+      </c>
+      <c r="P25" s="18">
+        <v>21690</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="52" t="s">
+      <c r="F26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="54">
+      <c r="I26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="16">
         <v>1930</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="55">
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="18">
+        <v>38056</v>
+      </c>
+      <c r="O27" s="18">
+        <v>42963</v>
+      </c>
+      <c r="P27" s="18">
+        <v>22285</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="18">
         <v>43313</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O35" s="50">
         <v>43315</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P35" s="18">
         <v>23648</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="52" t="s">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="54">
+      <c r="I36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="16">
         <v>1930</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="55">
+      <c r="K36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="33"/>
+      <c r="N36" s="18">
         <v>38470</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O36" s="50">
         <v>43034</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P36" s="18">
         <v>15924</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="52" t="s">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="54">
+      <c r="I37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="16">
         <v>1930</v>
       </c>
-      <c r="K6" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="55">
-        <v>31426</v>
-      </c>
-      <c r="O6" s="55">
-        <v>31554</v>
-      </c>
-      <c r="P6" s="55">
-        <v>21762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="52" t="s">
+      <c r="K37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="18">
+        <v>34747</v>
+      </c>
+      <c r="O37" s="50">
+        <v>34781</v>
+      </c>
+      <c r="P37" s="18">
+        <v>24960</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="16">
+        <v>1930</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="16"/>
+      <c r="M38" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="N38" s="18">
+        <v>37122</v>
+      </c>
+      <c r="O38" s="50">
+        <v>41934</v>
+      </c>
+      <c r="P38" s="18">
+        <v>13466</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="54">
+      <c r="I39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="16">
         <v>1930</v>
       </c>
-      <c r="K7" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="55">
-        <v>30787</v>
-      </c>
-      <c r="O7" s="55">
-        <v>30833</v>
-      </c>
-      <c r="P7" s="55">
-        <v>22049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="52" t="s">
+      <c r="K39" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="50">
+        <v>36434</v>
+      </c>
+      <c r="P39" s="18">
+        <v>21710</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="16">
+        <v>3811</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="N40" s="18">
+        <v>36740</v>
+      </c>
+      <c r="O40" s="50">
+        <v>36825</v>
+      </c>
+      <c r="P40" s="18">
+        <v>29847</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="54">
+      <c r="I41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="16">
         <v>1930</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-    </row>
-    <row r="9" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="55">
-        <v>41900</v>
-      </c>
-      <c r="O9" s="55">
-        <v>41934</v>
-      </c>
-      <c r="P9" s="55">
-        <v>23021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="N10" s="55">
-        <v>45466</v>
-      </c>
-      <c r="O10" s="55">
-        <v>45466</v>
-      </c>
-      <c r="P10" s="55">
-        <v>25421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="55">
-        <v>39995</v>
-      </c>
-      <c r="O11" s="55">
-        <v>40041</v>
-      </c>
-      <c r="P11" s="55">
-        <v>18821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="L12" s="54"/>
-      <c r="M12" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="N12" s="55">
-        <v>45583</v>
-      </c>
-      <c r="O12" s="55">
-        <v>45583</v>
-      </c>
-      <c r="P12" s="55">
-        <v>21957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="59">
-        <v>1930</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="53"/>
-      <c r="M13" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="N13" s="60">
-        <v>42918</v>
-      </c>
-      <c r="O13" s="60">
-        <v>42934</v>
-      </c>
-      <c r="P13" s="60">
-        <v>20580</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K14" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="55">
-        <v>42972</v>
-      </c>
-      <c r="O14" s="55">
+      <c r="K41" s="16"/>
+      <c r="L41" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="M41" s="33"/>
+      <c r="N41" s="18">
+        <v>38333</v>
+      </c>
+      <c r="O41" s="50">
         <v>43034</v>
       </c>
-      <c r="P14" s="55">
-        <v>16741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K15" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="54"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55">
-        <v>40982</v>
-      </c>
-      <c r="P15" s="55">
-        <v>23490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K16" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="55">
-        <v>42392</v>
-      </c>
-      <c r="O16" s="55">
-        <v>42417</v>
-      </c>
-      <c r="P16" s="55">
-        <v>22017</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="J17" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="K17" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="N17" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="55">
-        <v>40500</v>
-      </c>
-      <c r="P17" s="55">
-        <v>17584</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K18" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" s="54"/>
-      <c r="M18" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="N18" s="55">
-        <v>34747</v>
-      </c>
-      <c r="O18" s="55">
-        <v>34781</v>
-      </c>
-      <c r="P18" s="55">
-        <v>24960</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="N19" s="55">
-        <v>37122</v>
-      </c>
-      <c r="O19" s="55">
-        <v>41934</v>
-      </c>
-      <c r="P19" s="55">
-        <v>13466</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-    </row>
-    <row r="21" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K21" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55">
-        <v>36434</v>
-      </c>
-      <c r="P21" s="55">
-        <v>21710</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="J22" s="54">
-        <v>3811</v>
-      </c>
-      <c r="K22" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="M22" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="N22" s="55">
-        <v>36740</v>
-      </c>
-      <c r="O22" s="55">
-        <v>36825</v>
-      </c>
-      <c r="P22" s="55">
-        <v>29847</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K23" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="N23" s="55">
-        <v>39651</v>
-      </c>
-      <c r="O23" s="55">
-        <v>39672</v>
-      </c>
-      <c r="P23" s="55">
-        <v>25861</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="55">
-        <v>38333</v>
-      </c>
-      <c r="O24" s="55">
-        <v>43034</v>
-      </c>
-      <c r="P24" s="55">
-        <v>21885</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K25" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="L25" s="54"/>
-      <c r="M25" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="N25" s="55">
-        <v>45134</v>
-      </c>
-      <c r="O25" s="55">
-        <v>45159</v>
-      </c>
-      <c r="P25" s="55">
-        <v>21690</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-    </row>
-    <row r="27" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K27" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="L27" s="54"/>
-      <c r="M27" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="N27" s="55">
-        <v>38056</v>
-      </c>
-      <c r="O27" s="55">
-        <v>42963</v>
-      </c>
-      <c r="P27" s="55">
-        <v>22285</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="55">
-        <v>43313</v>
-      </c>
-      <c r="O35" s="62">
-        <v>43315</v>
-      </c>
-      <c r="P35" s="55">
-        <v>23648</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K36" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="M36" s="56"/>
-      <c r="N36" s="55">
-        <v>38470</v>
-      </c>
-      <c r="O36" s="62">
-        <v>43034</v>
-      </c>
-      <c r="P36" s="55">
-        <v>15924</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K37" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="L37" s="54"/>
-      <c r="M37" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="N37" s="55">
-        <v>34747</v>
-      </c>
-      <c r="O37" s="62">
-        <v>34781</v>
-      </c>
-      <c r="P37" s="55">
-        <v>24960</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="L38" s="54"/>
-      <c r="M38" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="N38" s="55">
-        <v>37122</v>
-      </c>
-      <c r="O38" s="62">
-        <v>41934</v>
-      </c>
-      <c r="P38" s="55">
-        <v>13466</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K39" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="L39" s="54"/>
-      <c r="M39" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="62">
-        <v>36434</v>
-      </c>
-      <c r="P39" s="55">
-        <v>21710</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="I40" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="J40" s="54">
-        <v>3811</v>
-      </c>
-      <c r="K40" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="L40" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="M40" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="N40" s="55">
-        <v>36740</v>
-      </c>
-      <c r="O40" s="62">
-        <v>36825</v>
-      </c>
-      <c r="P40" s="55">
-        <v>29847</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="54">
-        <v>1930</v>
-      </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="M41" s="56"/>
-      <c r="N41" s="55">
-        <v>38333</v>
-      </c>
-      <c r="O41" s="62">
-        <v>43034</v>
-      </c>
-      <c r="P41" s="55">
+      <c r="P41" s="18">
         <v>21885</v>
       </c>
     </row>

--- a/docs/Members.xlsx
+++ b/docs/Members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnsil\Documents\GFC\cursor files\GFC-System\GFC-Studio V2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F336F5-2DC3-4B8A-80DF-9886C4973A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136DE6F2-6AC7-464F-A4B5-B55F75FE72C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F186F330-01AE-4AE8-BCC6-D9E3A3A42AC8}"/>
   </bookViews>
@@ -1626,7 +1626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1941,6 +1941,9 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2260,7 +2263,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2282,7 @@
     <col min="13" max="13" width="35.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="21.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="110.7109375" customWidth="1"/>
   </cols>
@@ -2350,7 +2353,7 @@
       </c>
       <c r="E2"/>
       <c r="F2" s="110" t="s">
-        <v>399</v>
+        <v>142</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>400</v>
@@ -2379,8 +2382,8 @@
       <c r="O2" s="9">
         <v>39653</v>
       </c>
-      <c r="P2" s="9">
-        <v>39653</v>
+      <c r="P2" s="111">
+        <v>25707</v>
       </c>
       <c r="Q2" s="35" t="s">
         <v>143</v>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="E3"/>
       <c r="F3" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>411</v>
@@ -2422,8 +2425,8 @@
       <c r="O3" s="9">
         <v>37161</v>
       </c>
-      <c r="P3" s="9">
-        <v>37161</v>
+      <c r="P3" s="111">
+        <v>25225</v>
       </c>
       <c r="Q3" s="35" t="s">
         <v>144</v>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="E4"/>
       <c r="F4" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>415</v>
@@ -2469,8 +2472,8 @@
       <c r="O4" s="9">
         <v>35773</v>
       </c>
-      <c r="P4" s="9">
-        <v>35773</v>
+      <c r="P4" s="111">
+        <v>24886</v>
       </c>
       <c r="Q4" s="35" t="s">
         <v>144</v>
@@ -2487,7 +2490,7 @@
       </c>
       <c r="E5"/>
       <c r="F5" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>420</v>
@@ -2516,8 +2519,8 @@
       <c r="O5" s="9">
         <v>40015</v>
       </c>
-      <c r="P5" s="9">
-        <v>40015</v>
+      <c r="P5" s="111">
+        <v>27744</v>
       </c>
       <c r="Q5" s="35" t="s">
         <v>144</v>
@@ -2536,7 +2539,7 @@
       </c>
       <c r="E6"/>
       <c r="F6" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>425</v>
@@ -2565,8 +2568,8 @@
       <c r="O6" s="102">
         <v>41571</v>
       </c>
-      <c r="P6" s="102">
-        <v>41571</v>
+      <c r="P6" s="111">
+        <v>24414</v>
       </c>
       <c r="Q6" s="35" t="s">
         <v>144</v>
@@ -2585,7 +2588,7 @@
       </c>
       <c r="E7"/>
       <c r="F7" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>430</v>
@@ -2612,8 +2615,8 @@
       <c r="O7" s="9">
         <v>42781</v>
       </c>
-      <c r="P7" s="9">
-        <v>42781</v>
+      <c r="P7" s="111">
+        <v>24969</v>
       </c>
       <c r="Q7" s="35" t="s">
         <v>144</v>
@@ -2632,7 +2635,7 @@
       </c>
       <c r="E8"/>
       <c r="F8" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>435</v>
@@ -2659,8 +2662,8 @@
       <c r="O8" s="9">
         <v>39226</v>
       </c>
-      <c r="P8" s="9">
-        <v>39226</v>
+      <c r="P8" s="111">
+        <v>26516</v>
       </c>
       <c r="Q8" s="35" t="s">
         <v>144</v>
@@ -7209,10 +7212,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26AA510-3AF6-4344-9BE8-EF0864DE267D}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Q9"/>
+      <selection activeCell="P3" sqref="P3:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7222,14 +7225,15 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="24" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -7334,8 +7338,8 @@
       <c r="O3" s="9">
         <v>39653</v>
       </c>
-      <c r="P3" s="9">
-        <v>39653</v>
+      <c r="P3" s="111">
+        <v>25707</v>
       </c>
       <c r="Q3" s="35" t="s">
         <v>143</v>
@@ -7374,8 +7378,8 @@
       <c r="O4" s="9">
         <v>37161</v>
       </c>
-      <c r="P4" s="9">
-        <v>37161</v>
+      <c r="P4" s="111">
+        <v>25225</v>
       </c>
       <c r="Q4" s="35" t="s">
         <v>144</v>
@@ -7419,8 +7423,8 @@
       <c r="O5" s="9">
         <v>35773</v>
       </c>
-      <c r="P5" s="9">
-        <v>35773</v>
+      <c r="P5" s="111">
+        <v>24886</v>
       </c>
       <c r="Q5" s="35" t="s">
         <v>144</v>
@@ -7463,8 +7467,8 @@
       <c r="O6" s="9">
         <v>40015</v>
       </c>
-      <c r="P6" s="9">
-        <v>40015</v>
+      <c r="P6" s="111">
+        <v>27744</v>
       </c>
       <c r="Q6" s="35" t="s">
         <v>144</v>
@@ -7510,8 +7514,8 @@
       <c r="O7" s="102">
         <v>41571</v>
       </c>
-      <c r="P7" s="102">
-        <v>41571</v>
+      <c r="P7" s="111">
+        <v>24414</v>
       </c>
       <c r="Q7" s="35" t="s">
         <v>144</v>
@@ -7555,8 +7559,8 @@
       <c r="O8" s="9">
         <v>42781</v>
       </c>
-      <c r="P8" s="9">
-        <v>42781</v>
+      <c r="P8" s="111">
+        <v>24969</v>
       </c>
       <c r="Q8" s="35" t="s">
         <v>144</v>
@@ -7600,8 +7604,8 @@
       <c r="O9" s="9">
         <v>39226</v>
       </c>
-      <c r="P9" s="9">
-        <v>39226</v>
+      <c r="P9" s="111">
+        <v>26516</v>
       </c>
       <c r="Q9" s="35" t="s">
         <v>144</v>
@@ -7609,6 +7613,32 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q10" s="35"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -7618,7 +7648,6 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -7637,82 +7666,55 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="106" t="s">
+    <row r="19" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="106" t="s">
         <v>398</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C19" t="s">
         <v>439</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D19" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F19" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G19" s="106" t="s">
         <v>404</v>
       </c>
-      <c r="H20" s="106" t="s">
+      <c r="H19" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="I20" s="106" t="s">
+      <c r="I19" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="J20" s="107">
+      <c r="J19" s="107">
         <v>39560</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K19" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="107" t="s">
+      <c r="L19" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M19" t="s">
         <v>408</v>
       </c>
-      <c r="N20" s="109">
+      <c r="N19" s="109">
         <v>38746</v>
       </c>
-      <c r="O20" s="109">
+      <c r="O19" s="109">
         <v>38771</v>
       </c>
-      <c r="P20" s="109">
+      <c r="P19" s="109">
         <v>38771</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="Q19" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
         <v>438</v>
       </c>
     </row>
